--- a/Métriques discriminantes/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_pressure.xlsx
+++ b/Métriques discriminantes/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_pressure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,1259 +551,3095 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.410640597050704</v>
+        <v>58.87880060811208</v>
       </c>
       <c r="C4" t="n">
-        <v>2.000435193492698</v>
+        <v>45.8520550095071</v>
       </c>
       <c r="D4" t="n">
-        <v>20.51</v>
+        <v>28.41</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3431588645066361</v>
+        <v>5.660580446930359</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3774369966919066</v>
+        <v>11.40422201273701</v>
       </c>
       <c r="G4" t="n">
-        <v>1.899284956914031</v>
+        <v>51.81181624110305</v>
       </c>
       <c r="H4" t="n">
-        <v>1.410419293421</v>
+        <v>27.07635569000113</v>
       </c>
       <c r="I4" t="n">
-        <v>2.813676299716636</v>
+        <v>64.08709424495167</v>
       </c>
       <c r="J4" t="n">
-        <v>2.578409050715873</v>
+        <v>67.16742225402993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_low_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.31797612483565</v>
+        <v>2.699293578321392</v>
       </c>
       <c r="C5" t="n">
-        <v>13.03439753150214</v>
+        <v>2.231142913077332</v>
       </c>
       <c r="D5" t="n">
-        <v>17.52</v>
+        <v>20.98</v>
       </c>
       <c r="E5" t="n">
-        <v>2.55816329417295</v>
+        <v>0.4053851438821732</v>
       </c>
       <c r="F5" t="n">
-        <v>2.326907235871071</v>
+        <v>0.803230133605165</v>
       </c>
       <c r="G5" t="n">
-        <v>11.86438170919754</v>
+        <v>2.172853787881023</v>
       </c>
       <c r="H5" t="n">
-        <v>8.309592396820982</v>
+        <v>1.123386132216515</v>
       </c>
       <c r="I5" t="n">
-        <v>18.6267553478586</v>
+        <v>3.245104697875445</v>
       </c>
       <c r="J5" t="n">
-        <v>17.86666724365256</v>
+        <v>4.153587479396603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.064005266963316</v>
+        <v>2.410640597050704</v>
       </c>
       <c r="C6" t="n">
-        <v>4.315425007309899</v>
+        <v>2.000435193492698</v>
       </c>
       <c r="D6" t="n">
-        <v>17.35</v>
+        <v>20.51</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8476403585258567</v>
+        <v>0.3431588645066361</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7560831502999676</v>
+        <v>0.3774369966919066</v>
       </c>
       <c r="G6" t="n">
-        <v>3.891934750285112</v>
+        <v>1.899284956914031</v>
       </c>
       <c r="H6" t="n">
-        <v>2.697585580340602</v>
+        <v>1.410419293421</v>
       </c>
       <c r="I6" t="n">
-        <v>5.95875779720528</v>
+        <v>2.813676299716636</v>
       </c>
       <c r="J6" t="n">
-        <v>5.434765673650782</v>
+        <v>2.578409050715873</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_low_pressure_per_match</t>
+          <t>count_completed_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.6000761708881</v>
+        <v>15.31797612483565</v>
       </c>
       <c r="C7" t="n">
-        <v>15.16546310725304</v>
+        <v>13.03439753150214</v>
       </c>
       <c r="D7" t="n">
-        <v>16.05</v>
+        <v>17.52</v>
       </c>
       <c r="E7" t="n">
-        <v>2.694819682605172</v>
+        <v>2.55816329417295</v>
       </c>
       <c r="F7" t="n">
-        <v>2.529511414493091</v>
+        <v>2.326907235871071</v>
       </c>
       <c r="G7" t="n">
-        <v>14.09506098416305</v>
+        <v>11.86438170919754</v>
       </c>
       <c r="H7" t="n">
-        <v>10.17061116057284</v>
+        <v>8.309592396820982</v>
       </c>
       <c r="I7" t="n">
-        <v>21.41058995292123</v>
+        <v>18.6267553478586</v>
       </c>
       <c r="J7" t="n">
-        <v>20.06471417986028</v>
+        <v>17.86666724365256</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.52614447702483</v>
+        <v>13.70521938389866</v>
       </c>
       <c r="C8" t="n">
-        <v>16.12575585749938</v>
+        <v>16.60205057211949</v>
       </c>
       <c r="D8" t="n">
-        <v>14.89</v>
+        <v>-17.45</v>
       </c>
       <c r="E8" t="n">
-        <v>2.645292757139543</v>
+        <v>1.039277662149388</v>
       </c>
       <c r="F8" t="n">
-        <v>2.400074948502687</v>
+        <v>2.87556355554035</v>
       </c>
       <c r="G8" t="n">
-        <v>14.83393502398734</v>
+        <v>12.60892248309892</v>
       </c>
       <c r="H8" t="n">
-        <v>11.99711956248855</v>
+        <v>10.66144318486835</v>
       </c>
       <c r="I8" t="n">
-        <v>21.97759441061222</v>
+        <v>14.98895315259885</v>
       </c>
       <c r="J8" t="n">
-        <v>21.36224793103679</v>
+        <v>22.71124013951716</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.708868999212649</v>
+        <v>5.064005266963316</v>
       </c>
       <c r="C9" t="n">
-        <v>8.461886087333903</v>
+        <v>4.315425007309899</v>
       </c>
       <c r="D9" t="n">
-        <v>14.74</v>
+        <v>17.35</v>
       </c>
       <c r="E9" t="n">
-        <v>1.265124375996538</v>
+        <v>0.8476403585258567</v>
       </c>
       <c r="F9" t="n">
-        <v>1.215034694327539</v>
+        <v>0.7560831502999676</v>
       </c>
       <c r="G9" t="n">
-        <v>7.832796240424177</v>
+        <v>3.891934750285112</v>
       </c>
       <c r="H9" t="n">
-        <v>5.874420561207423</v>
+        <v>2.697585580340602</v>
       </c>
       <c r="I9" t="n">
-        <v>11.35585064438947</v>
+        <v>5.95875779720528</v>
       </c>
       <c r="J9" t="n">
-        <v>10.15048953285467</v>
+        <v>5.434765673650782</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>count_low_pressures_received_per_match</t>
+          <t>count_ball_retentions_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.73595382610306</v>
+        <v>17.6000761708881</v>
       </c>
       <c r="C10" t="n">
-        <v>19.21712725753227</v>
+        <v>15.16546310725304</v>
       </c>
       <c r="D10" t="n">
-        <v>13.11</v>
+        <v>16.05</v>
       </c>
       <c r="E10" t="n">
-        <v>2.768115433347392</v>
+        <v>2.694819682605172</v>
       </c>
       <c r="F10" t="n">
-        <v>2.587869700880357</v>
+        <v>2.529511414493091</v>
       </c>
       <c r="G10" t="n">
-        <v>17.8605774925761</v>
+        <v>14.09506098416305</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0903415185088</v>
+        <v>10.17061116057284</v>
       </c>
       <c r="I10" t="n">
-        <v>25.57737837236299</v>
+        <v>21.41058995292123</v>
       </c>
       <c r="J10" t="n">
-        <v>24.4053109544749</v>
+        <v>20.06471417986028</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.005592049041718</v>
+        <v>2.567882931107999</v>
       </c>
       <c r="C11" t="n">
-        <v>6.23119532036499</v>
+        <v>3.043191474854891</v>
       </c>
       <c r="D11" t="n">
-        <v>12.43</v>
+        <v>-15.62</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6883559467227141</v>
+        <v>0.3709950888041283</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9770005713853567</v>
+        <v>0.7787439044976642</v>
       </c>
       <c r="G11" t="n">
-        <v>5.936851822843828</v>
+        <v>2.044679667882806</v>
       </c>
       <c r="H11" t="n">
-        <v>4.447640376312369</v>
+        <v>1.884808093850438</v>
       </c>
       <c r="I11" t="n">
-        <v>7.808242880329368</v>
+        <v>3.019492677793612</v>
       </c>
       <c r="J11" t="n">
-        <v>7.825262055526816</v>
+        <v>4.527976688632911</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_medium_pressure_per_match</t>
+          <t>count_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>70.82781662781403</v>
+        <v>18.52614447702483</v>
       </c>
       <c r="C12" t="n">
-        <v>64.08204753818748</v>
+        <v>16.12575585749938</v>
       </c>
       <c r="D12" t="n">
-        <v>10.53</v>
+        <v>14.89</v>
       </c>
       <c r="E12" t="n">
-        <v>11.70603751087383</v>
+        <v>2.645292757139542</v>
       </c>
       <c r="F12" t="n">
-        <v>9.150788641712808</v>
+        <v>2.400074948502687</v>
       </c>
       <c r="G12" t="n">
-        <v>51.87327252371745</v>
+        <v>14.83393502398734</v>
       </c>
       <c r="H12" t="n">
-        <v>47.75615730667351</v>
+        <v>11.99711956248855</v>
       </c>
       <c r="I12" t="n">
-        <v>80.28543360661705</v>
+        <v>21.97759441061222</v>
       </c>
       <c r="J12" t="n">
-        <v>82.24582440433775</v>
+        <v>21.36224793103679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.531582012538288</v>
+        <v>9.708868999212649</v>
       </c>
       <c r="C13" t="n">
-        <v>3.198585986536426</v>
+        <v>8.461886087333903</v>
       </c>
       <c r="D13" t="n">
-        <v>10.41</v>
+        <v>14.74</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4777068396430045</v>
+        <v>1.265124375996538</v>
       </c>
       <c r="F13" t="n">
-        <v>0.526490897142727</v>
+        <v>1.215034694327539</v>
       </c>
       <c r="G13" t="n">
-        <v>2.992255121770995</v>
+        <v>7.832796240424177</v>
       </c>
       <c r="H13" t="n">
-        <v>2.164787592259651</v>
+        <v>5.874420561207423</v>
       </c>
       <c r="I13" t="n">
-        <v>4.066142021508265</v>
+        <v>11.35585064438947</v>
       </c>
       <c r="J13" t="n">
-        <v>4.234255617531347</v>
+        <v>10.15048953285467</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_medium_pressure_per_match</t>
+          <t>count_forced_losses_under_high_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82.06453223751136</v>
+        <v>63.96613952701654</v>
       </c>
       <c r="C14" t="n">
-        <v>74.85314098456587</v>
+        <v>74.6142030322771</v>
       </c>
       <c r="D14" t="n">
-        <v>9.630000000000001</v>
+        <v>-14.27</v>
       </c>
       <c r="E14" t="n">
-        <v>12.60318022223563</v>
+        <v>7.132372645899776</v>
       </c>
       <c r="F14" t="n">
-        <v>9.703934034261355</v>
+        <v>13.7367608057657</v>
       </c>
       <c r="G14" t="n">
-        <v>61.22153456743462</v>
+        <v>55.69577257494262</v>
       </c>
       <c r="H14" t="n">
-        <v>57.41912897938928</v>
+        <v>55.06664360613797</v>
       </c>
       <c r="I14" t="n">
-        <v>92.1648809940915</v>
+        <v>71.91928441575149</v>
       </c>
       <c r="J14" t="n">
-        <v>94.02726667018787</v>
+        <v>107.5820494621474</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_low_pressure</t>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>48.20684748018029</v>
+        <v>4.939245868951578</v>
       </c>
       <c r="C15" t="n">
-        <v>44.34708230359838</v>
+        <v>4.337869601187783</v>
       </c>
       <c r="D15" t="n">
-        <v>8.699999999999999</v>
+        <v>13.86</v>
       </c>
       <c r="E15" t="n">
-        <v>4.410336955218041</v>
+        <v>1.432654252042598</v>
       </c>
       <c r="F15" t="n">
-        <v>5.41551182118277</v>
+        <v>1.095319238687404</v>
       </c>
       <c r="G15" t="n">
-        <v>41.17080940203395</v>
+        <v>3.719199846682725</v>
       </c>
       <c r="H15" t="n">
-        <v>31.85565092840364</v>
+        <v>2.543435893398713</v>
       </c>
       <c r="I15" t="n">
-        <v>52.15025335521475</v>
+        <v>7.34098606640999</v>
       </c>
       <c r="J15" t="n">
-        <v>51.55774323594751</v>
+        <v>6.864370397738484</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.77578665338726</v>
+        <v>98.99125649724894</v>
       </c>
       <c r="C16" t="n">
-        <v>80.17453381111775</v>
+        <v>87.02428828557123</v>
       </c>
       <c r="D16" t="n">
-        <v>8.23</v>
+        <v>13.75</v>
       </c>
       <c r="E16" t="n">
-        <v>11.8235906267499</v>
+        <v>13.79173416938174</v>
       </c>
       <c r="F16" t="n">
-        <v>8.68487993797738</v>
+        <v>15.74002184387196</v>
       </c>
       <c r="G16" t="n">
-        <v>67.44513834778533</v>
+        <v>84.74427563133139</v>
       </c>
       <c r="H16" t="n">
-        <v>64.67815926678404</v>
+        <v>62.50338270432693</v>
       </c>
       <c r="I16" t="n">
-        <v>96.63709701407491</v>
+        <v>120.8683497427198</v>
       </c>
       <c r="J16" t="n">
-        <v>97.11523198142409</v>
+        <v>113.3210161424001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_per_match</t>
+          <t>count_forced_losses_under_medium_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>103.1371696892224</v>
+        <v>37.56224607641398</v>
       </c>
       <c r="C17" t="n">
-        <v>96.31081883995293</v>
+        <v>43.45461188397237</v>
       </c>
       <c r="D17" t="n">
-        <v>7.09</v>
+        <v>-13.56</v>
       </c>
       <c r="E17" t="n">
-        <v>12.9900778914515</v>
+        <v>4.572611232438523</v>
       </c>
       <c r="F17" t="n">
-        <v>9.404844930823185</v>
+        <v>6.625842651813695</v>
       </c>
       <c r="G17" t="n">
-        <v>81.31058055075862</v>
+        <v>32.03287813366151</v>
       </c>
       <c r="H17" t="n">
-        <v>80.0968719601268</v>
+        <v>33.10627430489534</v>
       </c>
       <c r="I17" t="n">
-        <v>113.8601288456971</v>
+        <v>42.04818819844693</v>
       </c>
       <c r="J17" t="n">
-        <v>115.240759483247</v>
+        <v>61.87008857253689</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_high_pressure_per_match</t>
+          <t>count_low_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>67.72483866786148</v>
+        <v>21.73595382610306</v>
       </c>
       <c r="C18" t="n">
-        <v>63.26187430073603</v>
+        <v>19.21712725753227</v>
       </c>
       <c r="D18" t="n">
-        <v>7.05</v>
+        <v>13.11</v>
       </c>
       <c r="E18" t="n">
-        <v>7.59987005470007</v>
+        <v>2.768115433347392</v>
       </c>
       <c r="F18" t="n">
-        <v>6.553433011659468</v>
+        <v>2.587869700880357</v>
       </c>
       <c r="G18" t="n">
-        <v>56.52968207690235</v>
+        <v>17.8605774925761</v>
       </c>
       <c r="H18" t="n">
-        <v>53.52864686206652</v>
+        <v>15.0903415185088</v>
       </c>
       <c r="I18" t="n">
-        <v>76.02431420612432</v>
+        <v>25.57737837236299</v>
       </c>
       <c r="J18" t="n">
-        <v>77.78047154425167</v>
+        <v>24.4053109544749</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_low_pressure</t>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.69211739554204</v>
+        <v>33.63639276440158</v>
       </c>
       <c r="C19" t="n">
-        <v>47.41532395453828</v>
+        <v>38.70646225672278</v>
       </c>
       <c r="D19" t="n">
-        <v>6.91</v>
+        <v>-13.1</v>
       </c>
       <c r="E19" t="n">
-        <v>4.071726453903429</v>
+        <v>5.100275657845295</v>
       </c>
       <c r="F19" t="n">
-        <v>5.38928054846813</v>
+        <v>8.522075694783137</v>
       </c>
       <c r="G19" t="n">
-        <v>44.36828160627763</v>
+        <v>29.25539286221538</v>
       </c>
       <c r="H19" t="n">
-        <v>34.94103122000642</v>
+        <v>25.71331718704434</v>
       </c>
       <c r="I19" t="n">
-        <v>55.31308364809014</v>
+        <v>41.52881857929867</v>
       </c>
       <c r="J19" t="n">
-        <v>54.34400387761803</v>
+        <v>58.9519969525016</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20.44579215155953</v>
+        <v>7.005592049041718</v>
       </c>
       <c r="C20" t="n">
-        <v>19.19621465662603</v>
+        <v>6.23119532036499</v>
       </c>
       <c r="D20" t="n">
-        <v>6.51</v>
+        <v>12.43</v>
       </c>
       <c r="E20" t="n">
-        <v>2.71981633972312</v>
+        <v>0.6883559467227141</v>
       </c>
       <c r="F20" t="n">
-        <v>2.591374925295072</v>
+        <v>0.9770005713853566</v>
       </c>
       <c r="G20" t="n">
-        <v>17.14139831677985</v>
+        <v>5.936851822843828</v>
       </c>
       <c r="H20" t="n">
-        <v>14.2514256866458</v>
+        <v>4.44764037631237</v>
       </c>
       <c r="I20" t="n">
-        <v>24.26918550227828</v>
+        <v>7.808242880329368</v>
       </c>
       <c r="J20" t="n">
-        <v>22.59032836611046</v>
+        <v>7.825262055526816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.09933544338354</v>
+        <v>29.4875198436197</v>
       </c>
       <c r="C21" t="n">
-        <v>16.11574960881844</v>
+        <v>33.29833742825132</v>
       </c>
       <c r="D21" t="n">
-        <v>6.1</v>
+        <v>-11.44</v>
       </c>
       <c r="E21" t="n">
-        <v>1.562111033886586</v>
+        <v>3.980406517214554</v>
       </c>
       <c r="F21" t="n">
-        <v>1.793241943431018</v>
+        <v>5.548875443726083</v>
       </c>
       <c r="G21" t="n">
-        <v>15.35393226282491</v>
+        <v>24.93194410453001</v>
       </c>
       <c r="H21" t="n">
-        <v>12.11857449498212</v>
+        <v>22.99458753034555</v>
       </c>
       <c r="I21" t="n">
-        <v>19.08287982014093</v>
+        <v>34.14101026442767</v>
       </c>
       <c r="J21" t="n">
-        <v>19.40650061270864</v>
+        <v>42.09480362791628</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_high_pressure_per_match</t>
+          <t>count_forced_losses_under_low_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.52800501858587</v>
+        <v>163.8302206909454</v>
       </c>
       <c r="C22" t="n">
-        <v>90.11001493881376</v>
+        <v>184.4159248023261</v>
       </c>
       <c r="D22" t="n">
-        <v>6.01</v>
+        <v>-11.16</v>
       </c>
       <c r="E22" t="n">
-        <v>9.593761884252615</v>
+        <v>14.35965351907781</v>
       </c>
       <c r="F22" t="n">
-        <v>7.667538627233863</v>
+        <v>24.69757650008822</v>
       </c>
       <c r="G22" t="n">
-        <v>82.19198514296028</v>
+        <v>146.9165092105592</v>
       </c>
       <c r="H22" t="n">
-        <v>79.07083020752353</v>
+        <v>143.8753044102742</v>
       </c>
       <c r="I22" t="n">
-        <v>106.9130877683976</v>
+        <v>180.212317795126</v>
       </c>
       <c r="J22" t="n">
-        <v>107.4145261516224</v>
+        <v>254.4889764953122</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_completed_difficult_passes_under_high_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27.41551230945307</v>
+        <v>15.45419392766676</v>
       </c>
       <c r="C23" t="n">
-        <v>28.82947715268287</v>
+        <v>17.33098007225263</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.9</v>
+        <v>-10.83</v>
       </c>
       <c r="E23" t="n">
-        <v>1.308154954285623</v>
+        <v>1.312234179473873</v>
       </c>
       <c r="F23" t="n">
-        <v>1.582716530604583</v>
+        <v>3.43334497038248</v>
       </c>
       <c r="G23" t="n">
-        <v>25.8586329953945</v>
+        <v>13.79181403415568</v>
       </c>
       <c r="H23" t="n">
-        <v>25.67136560734314</v>
+        <v>11.54428095008453</v>
       </c>
       <c r="I23" t="n">
-        <v>29.24262009233778</v>
+        <v>17.36753595618347</v>
       </c>
       <c r="J23" t="n">
-        <v>30.50855872867531</v>
+        <v>25.80514710142546</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_completed_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>86.44445893810969</v>
+        <v>70.82781662781403</v>
       </c>
       <c r="C24" t="n">
-        <v>82.58892288068476</v>
+        <v>64.08204753818748</v>
       </c>
       <c r="D24" t="n">
-        <v>4.67</v>
+        <v>10.53</v>
       </c>
       <c r="E24" t="n">
-        <v>6.839652965167274</v>
+        <v>11.70603751087383</v>
       </c>
       <c r="F24" t="n">
-        <v>5.885820093249933</v>
+        <v>9.150788641712808</v>
       </c>
       <c r="G24" t="n">
-        <v>76.13021056849205</v>
+        <v>51.87327252371745</v>
       </c>
       <c r="H24" t="n">
-        <v>75.7589486335914</v>
+        <v>47.75615730667351</v>
       </c>
       <c r="I24" t="n">
-        <v>94.21542623186333</v>
+        <v>80.28543360661705</v>
       </c>
       <c r="J24" t="n">
-        <v>97.11915244577327</v>
+        <v>82.24582440433775</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>count_high_pressures_received_per_match</t>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>129.2296056586938</v>
+        <v>3.531582012538288</v>
       </c>
       <c r="C25" t="n">
-        <v>124.5727367736607</v>
+        <v>3.198585986536426</v>
       </c>
       <c r="D25" t="n">
-        <v>3.74</v>
+        <v>10.41</v>
       </c>
       <c r="E25" t="n">
-        <v>9.417453240133325</v>
+        <v>0.4777068396430045</v>
       </c>
       <c r="F25" t="n">
-        <v>7.090524919515879</v>
+        <v>0.526490897142727</v>
       </c>
       <c r="G25" t="n">
-        <v>115.721445699044</v>
+        <v>2.992255121770995</v>
       </c>
       <c r="H25" t="n">
-        <v>114.7203877108655</v>
+        <v>2.164787592259651</v>
       </c>
       <c r="I25" t="n">
-        <v>140.5440402814107</v>
+        <v>4.066142021508265</v>
       </c>
       <c r="J25" t="n">
-        <v>141.6616858668597</v>
+        <v>4.234255617531347</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.190240281646732</v>
+        <v>124.2444988381813</v>
       </c>
       <c r="C26" t="n">
-        <v>8.449312368547409</v>
+        <v>138.4681578195836</v>
       </c>
       <c r="D26" t="n">
-        <v>-3.07</v>
+        <v>-10.27</v>
       </c>
       <c r="E26" t="n">
-        <v>0.579144379160078</v>
+        <v>11.98869486813931</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6534429990879151</v>
+        <v>18.07711149995009</v>
       </c>
       <c r="G26" t="n">
-        <v>7.314206004593141</v>
+        <v>110.98979741584</v>
       </c>
       <c r="H26" t="n">
-        <v>6.913255624881678</v>
+        <v>108.167806236774</v>
       </c>
       <c r="I26" t="n">
-        <v>8.88520852954443</v>
+        <v>141.8168580614336</v>
       </c>
       <c r="J26" t="n">
-        <v>9.270697872223591</v>
+        <v>174.5843001398555</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_high_pressure</t>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29.60760713956032</v>
+        <v>98.47078802645011</v>
       </c>
       <c r="C27" t="n">
-        <v>28.92710311937263</v>
+        <v>89.5340598838249</v>
       </c>
       <c r="D27" t="n">
-        <v>2.35</v>
+        <v>9.98</v>
       </c>
       <c r="E27" t="n">
-        <v>2.123053123217991</v>
+        <v>15.10460736265607</v>
       </c>
       <c r="F27" t="n">
-        <v>1.783374684312475</v>
+        <v>14.03035128537157</v>
       </c>
       <c r="G27" t="n">
-        <v>26.87328754377431</v>
+        <v>73.42568059257265</v>
       </c>
       <c r="H27" t="n">
-        <v>26.87943058574159</v>
+        <v>63.10504821508948</v>
       </c>
       <c r="I27" t="n">
-        <v>32.36513245430616</v>
+        <v>112.7346404247976</v>
       </c>
       <c r="J27" t="n">
-        <v>32.42490839628574</v>
+        <v>115.3774059077851</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_high_pressure_per_match</t>
+          <t>count_ball_retentions_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.70160064010796</v>
+        <v>82.06453223751136</v>
       </c>
       <c r="C28" t="n">
-        <v>34.46272183484692</v>
+        <v>74.85314098456587</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.21</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6521277532702746</v>
+        <v>12.60318022223563</v>
       </c>
       <c r="F28" t="n">
-        <v>2.252794687552074</v>
+        <v>9.703934034261355</v>
       </c>
       <c r="G28" t="n">
-        <v>32.81138503953775</v>
+        <v>61.22153456743462</v>
       </c>
       <c r="H28" t="n">
-        <v>30.71203724013567</v>
+        <v>57.41912897938928</v>
       </c>
       <c r="I28" t="n">
-        <v>34.60878306036576</v>
+        <v>92.1648809940915</v>
       </c>
       <c r="J28" t="n">
-        <v>38.42727754238924</v>
+        <v>94.02726667018787</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_low_pressure</t>
+          <t>count_completed_passes_under_low_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.388398995518534</v>
+        <v>619.0347557398957</v>
       </c>
       <c r="C29" t="n">
-        <v>9.188153106081417</v>
+        <v>567.361772061979</v>
       </c>
       <c r="D29" t="n">
-        <v>2.18</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>1.130937246287605</v>
+        <v>53.52909092254235</v>
       </c>
       <c r="F29" t="n">
-        <v>1.745602047215163</v>
+        <v>65.66371217575387</v>
       </c>
       <c r="G29" t="n">
-        <v>7.906618336989101</v>
+        <v>531.437150600544</v>
       </c>
       <c r="H29" t="n">
-        <v>7.023128530731448</v>
+        <v>417.7984328948431</v>
       </c>
       <c r="I29" t="n">
-        <v>10.50731671795062</v>
+        <v>665.21767250605</v>
       </c>
       <c r="J29" t="n">
-        <v>12.27675402487855</v>
+        <v>666.7046123301328</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_low_pressure_per_match</t>
+          <t>pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.135877655214959</v>
+        <v>48.20684748018029</v>
       </c>
       <c r="C30" t="n">
-        <v>4.051664150279227</v>
+        <v>44.34708230359838</v>
       </c>
       <c r="D30" t="n">
-        <v>2.08</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3524198999202106</v>
+        <v>4.410336955218041</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4554164450721871</v>
+        <v>5.41551182118277</v>
       </c>
       <c r="G30" t="n">
-        <v>3.76551650841305</v>
+        <v>41.17080940203395</v>
       </c>
       <c r="H30" t="n">
-        <v>3.445235941680335</v>
+        <v>31.85565092840364</v>
       </c>
       <c r="I30" t="n">
-        <v>4.591894578775816</v>
+        <v>52.15025335521475</v>
       </c>
       <c r="J30" t="n">
-        <v>4.978570830286243</v>
+        <v>51.55774323594751</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_medium_pressure</t>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.33539009640845</v>
+        <v>5.952870654391068</v>
       </c>
       <c r="C31" t="n">
-        <v>65.07082769935018</v>
+        <v>6.517418633433904</v>
       </c>
       <c r="D31" t="n">
-        <v>1.94</v>
+        <v>-8.66</v>
       </c>
       <c r="E31" t="n">
-        <v>2.737829022009495</v>
+        <v>1.875405454180416</v>
       </c>
       <c r="F31" t="n">
-        <v>2.770607139227629</v>
+        <v>1.179092091532278</v>
       </c>
       <c r="G31" t="n">
-        <v>61.97341069876638</v>
+        <v>4.327663817785957</v>
       </c>
       <c r="H31" t="n">
-        <v>58.99554369833887</v>
+        <v>4.742424778534381</v>
       </c>
       <c r="I31" t="n">
-        <v>68.6619255890492</v>
+        <v>9.108351994797328</v>
       </c>
       <c r="J31" t="n">
-        <v>68.34417862337921</v>
+        <v>8.465262317331646</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_medium_pressure_per_match</t>
+          <t>count_high_pressures_received_per_30_min_tip</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>21.07263745171105</v>
+        <v>232.8161990958417</v>
       </c>
       <c r="C32" t="n">
-        <v>21.45767785538708</v>
+        <v>254.083383409322</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.79</v>
+        <v>-8.369999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8682174740824362</v>
+        <v>11.83831113239136</v>
       </c>
       <c r="F32" t="n">
-        <v>1.056154776632053</v>
+        <v>24.76213141927044</v>
       </c>
       <c r="G32" t="n">
-        <v>20.089045983324</v>
+        <v>223.3182000056059</v>
       </c>
       <c r="H32" t="n">
-        <v>19.54765754965999</v>
+        <v>228.2082913261686</v>
       </c>
       <c r="I32" t="n">
-        <v>22.1216798325188</v>
+        <v>253.3797440511339</v>
       </c>
       <c r="J32" t="n">
-        <v>23.57308190408416</v>
+        <v>313.900993492791</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
+          <t>count_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.771641647253919</v>
+        <v>86.77578665338726</v>
       </c>
       <c r="C33" t="n">
-        <v>8.6196950759535</v>
+        <v>80.17453381111775</v>
       </c>
       <c r="D33" t="n">
-        <v>1.76</v>
+        <v>8.23</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4822935827077808</v>
+        <v>11.8235906267499</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7272518798499724</v>
+        <v>8.68487993797738</v>
       </c>
       <c r="G33" t="n">
-        <v>8.297084507028288</v>
+        <v>67.44513834778533</v>
       </c>
       <c r="H33" t="n">
-        <v>7.343120046737932</v>
+        <v>64.67815926678404</v>
       </c>
       <c r="I33" t="n">
-        <v>9.518549566911286</v>
+        <v>96.63709701407491</v>
       </c>
       <c r="J33" t="n">
-        <v>9.74609971088778</v>
+        <v>97.11523198142409</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_high_pressure</t>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>63.79663852730737</v>
+        <v>50.26677112413611</v>
       </c>
       <c r="C34" t="n">
-        <v>62.74636097489237</v>
+        <v>46.53125589454241</v>
       </c>
       <c r="D34" t="n">
-        <v>1.67</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>3.106221437029308</v>
+        <v>8.418869938117087</v>
       </c>
       <c r="F34" t="n">
-        <v>2.259124687653503</v>
+        <v>9.988642469463894</v>
       </c>
       <c r="G34" t="n">
-        <v>58.72040143786406</v>
+        <v>35.31773387699394</v>
       </c>
       <c r="H34" t="n">
-        <v>58.42119873135636</v>
+        <v>30.31539763180602</v>
       </c>
       <c r="I34" t="n">
-        <v>66.29717625903702</v>
+        <v>55.10551475817774</v>
       </c>
       <c r="J34" t="n">
-        <v>66.85710831866621</v>
+        <v>68.5892495716824</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_high_pressure</t>
+          <t>count_forced_losses_under_low_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>65.26093577501423</v>
+        <v>7.922662791529669</v>
       </c>
       <c r="C35" t="n">
-        <v>64.25097355208202</v>
+        <v>8.597639609095884</v>
       </c>
       <c r="D35" t="n">
-        <v>1.57</v>
+        <v>-7.85</v>
       </c>
       <c r="E35" t="n">
-        <v>4.146226643238476</v>
+        <v>2.306448107013673</v>
       </c>
       <c r="F35" t="n">
-        <v>2.724910069035285</v>
+        <v>1.546055006180205</v>
       </c>
       <c r="G35" t="n">
-        <v>58.37236531261879</v>
+        <v>5.292514599134843</v>
       </c>
       <c r="H35" t="n">
-        <v>58.33117335911105</v>
+        <v>6.706577977896643</v>
       </c>
       <c r="I35" t="n">
-        <v>68.67364819100777</v>
+        <v>11.47828072357972</v>
       </c>
       <c r="J35" t="n">
-        <v>68.3629216180415</v>
+        <v>13.13210229152024</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+          <t>count_pass_attempts_under_high_pressure_per_30_min_tip</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.616317785566582</v>
+        <v>149.2248257766119</v>
       </c>
       <c r="C36" t="n">
-        <v>1.597280398074337</v>
+        <v>161.049210377833</v>
       </c>
       <c r="D36" t="n">
-        <v>1.19</v>
+        <v>-7.34</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1794954536251064</v>
+        <v>8.682887253753647</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3017557285122426</v>
+        <v>15.0912443304695</v>
       </c>
       <c r="G36" t="n">
-        <v>1.386414378774036</v>
+        <v>142.6025543470765</v>
       </c>
       <c r="H36" t="n">
-        <v>1.171010686964805</v>
+        <v>144.0446252264349</v>
       </c>
       <c r="I36" t="n">
-        <v>1.800102473785913</v>
+        <v>164.4113304101839</v>
       </c>
       <c r="J36" t="n">
-        <v>2.176649273793562</v>
+        <v>193.0227960250818</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_ball_retentions_under_low_pressure_per_100_pressures</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.88538319807508</v>
+        <v>714.1098715633161</v>
       </c>
       <c r="C37" t="n">
-        <v>17.07793803699742</v>
+        <v>666.2762848361501</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.13</v>
+        <v>7.18</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7756577961598865</v>
+        <v>45.95763552554111</v>
       </c>
       <c r="F37" t="n">
-        <v>1.079689568576342</v>
+        <v>71.78460414884282</v>
       </c>
       <c r="G37" t="n">
-        <v>16.36988532008793</v>
+        <v>639.7916827831168</v>
       </c>
       <c r="H37" t="n">
-        <v>14.34622741423436</v>
+        <v>507.9536034280468</v>
       </c>
       <c r="I37" t="n">
-        <v>18.17544044914571</v>
+        <v>761.5964784140284</v>
       </c>
       <c r="J37" t="n">
-        <v>18.10816188367631</v>
+        <v>763.4399970671274</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_medium_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.185130243983958</v>
+        <v>103.1371696892224</v>
       </c>
       <c r="C38" t="n">
-        <v>3.213056349755119</v>
+        <v>96.31081883995293</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.87</v>
+        <v>7.09</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1501018409291491</v>
+        <v>12.9900778914515</v>
       </c>
       <c r="F38" t="n">
-        <v>0.419047254270259</v>
+        <v>9.404844930823185</v>
       </c>
       <c r="G38" t="n">
-        <v>3.010210159807008</v>
+        <v>81.31058055075862</v>
       </c>
       <c r="H38" t="n">
-        <v>2.41342584488841</v>
+        <v>80.0968719601268</v>
       </c>
       <c r="I38" t="n">
-        <v>3.377466693799771</v>
+        <v>113.8601288456971</v>
       </c>
       <c r="J38" t="n">
-        <v>4.05566687084303</v>
+        <v>115.240759483247</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_completed_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>18.54999338279208</v>
+        <v>67.72483866786148</v>
       </c>
       <c r="C39" t="n">
-        <v>18.68158928812503</v>
+        <v>63.26187430073603</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.7</v>
+        <v>7.05</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8505335732176285</v>
+        <v>7.59987005470007</v>
       </c>
       <c r="F39" t="n">
-        <v>1.82301944320041</v>
+        <v>6.553433011659468</v>
       </c>
       <c r="G39" t="n">
-        <v>17.50032242899635</v>
+        <v>56.52968207690235</v>
       </c>
       <c r="H39" t="n">
-        <v>15.20830733644102</v>
+        <v>53.52864686206652</v>
       </c>
       <c r="I39" t="n">
-        <v>19.86248050314585</v>
+        <v>76.02431420612432</v>
       </c>
       <c r="J39" t="n">
-        <v>21.55051489425237</v>
+        <v>77.78047154425167</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
+          <t>ball_retention_ratio_under_low_pressure</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>50.69211739554204</v>
+      </c>
+      <c r="C40" t="n">
+        <v>47.41532395453828</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.071726453903429</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5.38928054846813</v>
+      </c>
+      <c r="G40" t="n">
+        <v>44.36828160627763</v>
+      </c>
+      <c r="H40" t="n">
+        <v>34.94103122000642</v>
+      </c>
+      <c r="I40" t="n">
+        <v>55.31308364809014</v>
+      </c>
+      <c r="J40" t="n">
+        <v>54.34400387761803</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>101.2302616936407</v>
+      </c>
+      <c r="C41" t="n">
+        <v>108.3780269175204</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10.76762877493476</v>
+      </c>
+      <c r="F41" t="n">
+        <v>14.09972133741335</v>
+      </c>
+      <c r="G41" t="n">
+        <v>91.104629046928</v>
+      </c>
+      <c r="H41" t="n">
+        <v>74.79715485888231</v>
+      </c>
+      <c r="I41" t="n">
+        <v>117.9939599668365</v>
+      </c>
+      <c r="J41" t="n">
+        <v>131.2969624425579</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>277.5945809609403</v>
+      </c>
+      <c r="C42" t="n">
+        <v>297.0410609594783</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-6.55</v>
+      </c>
+      <c r="E42" t="n">
+        <v>30.94618376241215</v>
+      </c>
+      <c r="F42" t="n">
+        <v>30.74239187754188</v>
+      </c>
+      <c r="G42" t="n">
+        <v>242.7442467420192</v>
+      </c>
+      <c r="H42" t="n">
+        <v>257.0696797934822</v>
+      </c>
+      <c r="I42" t="n">
+        <v>322.0417378404327</v>
+      </c>
+      <c r="J42" t="n">
+        <v>377.8608576305269</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>20.44579215155953</v>
+      </c>
+      <c r="C43" t="n">
+        <v>19.19621465662603</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.71981633972312</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.591374925295072</v>
+      </c>
+      <c r="G43" t="n">
+        <v>17.14139831677985</v>
+      </c>
+      <c r="H43" t="n">
+        <v>14.2514256866458</v>
+      </c>
+      <c r="I43" t="n">
+        <v>24.26918550227828</v>
+      </c>
+      <c r="J43" t="n">
+        <v>22.59032836611046</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>17.09933544338354</v>
+      </c>
+      <c r="C44" t="n">
+        <v>16.11574960881844</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.562111033886586</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.793241943431018</v>
+      </c>
+      <c r="G44" t="n">
+        <v>15.35393226282491</v>
+      </c>
+      <c r="H44" t="n">
+        <v>12.11857449498212</v>
+      </c>
+      <c r="I44" t="n">
+        <v>19.08287982014093</v>
+      </c>
+      <c r="J44" t="n">
+        <v>19.40650061270864</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>105.9821086016668</v>
+      </c>
+      <c r="C45" t="n">
+        <v>99.89477354737738</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E45" t="n">
+        <v>13.46584995457424</v>
+      </c>
+      <c r="F45" t="n">
+        <v>16.86397565707459</v>
+      </c>
+      <c r="G45" t="n">
+        <v>92.21678596986776</v>
+      </c>
+      <c r="H45" t="n">
+        <v>65.09949960144161</v>
+      </c>
+      <c r="I45" t="n">
+        <v>123.6562087808751</v>
+      </c>
+      <c r="J45" t="n">
+        <v>128.1562333211708</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>9.854675476098208</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10.48909729602451</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-6.05</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.33377896744328</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.599134837129766</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7.588421400348961</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6.343661002482187</v>
+      </c>
+      <c r="I46" t="n">
+        <v>10.95731738318133</v>
+      </c>
+      <c r="J46" t="n">
+        <v>15.06626158232696</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>95.52800501858587</v>
+      </c>
+      <c r="C47" t="n">
+        <v>90.11001493881376</v>
+      </c>
+      <c r="D47" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9.593761884252615</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7.667538627233863</v>
+      </c>
+      <c r="G47" t="n">
+        <v>82.19198514296028</v>
+      </c>
+      <c r="H47" t="n">
+        <v>79.07083020752353</v>
+      </c>
+      <c r="I47" t="n">
+        <v>106.9130877683976</v>
+      </c>
+      <c r="J47" t="n">
+        <v>107.4145261516224</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_low_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>64.2679407452992</v>
+      </c>
+      <c r="C48" t="n">
+        <v>68.32334131922326</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-5.94</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8.203131014224654</v>
+      </c>
+      <c r="F48" t="n">
+        <v>12.22648120087221</v>
+      </c>
+      <c r="G48" t="n">
+        <v>50.14910799361805</v>
+      </c>
+      <c r="H48" t="n">
+        <v>48.8323860100438</v>
+      </c>
+      <c r="I48" t="n">
+        <v>69.65755254335687</v>
+      </c>
+      <c r="J48" t="n">
+        <v>97.19053457562333</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>168.8520469299702</v>
+      </c>
+      <c r="C49" t="n">
+        <v>179.4689187041386</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-5.92</v>
+      </c>
+      <c r="E49" t="n">
+        <v>9.151482715239769</v>
+      </c>
+      <c r="F49" t="n">
+        <v>13.30996159188064</v>
+      </c>
+      <c r="G49" t="n">
+        <v>159.2932883160759</v>
+      </c>
+      <c r="H49" t="n">
+        <v>163.5788576118184</v>
+      </c>
+      <c r="I49" t="n">
+        <v>182.4442888222418</v>
+      </c>
+      <c r="J49" t="n">
+        <v>206.3199324909388</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_low_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>744.0879837205897</v>
+      </c>
+      <c r="C50" t="n">
+        <v>706.2728806992631</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="E50" t="n">
+        <v>48.15496680133991</v>
+      </c>
+      <c r="F50" t="n">
+        <v>54.6732517090209</v>
+      </c>
+      <c r="G50" t="n">
+        <v>665.0447290803498</v>
+      </c>
+      <c r="H50" t="n">
+        <v>609.6384423679922</v>
+      </c>
+      <c r="I50" t="n">
+        <v>779.4612695345477</v>
+      </c>
+      <c r="J50" t="n">
+        <v>811.254939492193</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>27.41551230945307</v>
+      </c>
+      <c r="C51" t="n">
+        <v>28.82947715268287</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-4.9</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.308154954285623</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.582716530604583</v>
+      </c>
+      <c r="G51" t="n">
+        <v>25.8586329953945</v>
+      </c>
+      <c r="H51" t="n">
+        <v>25.67136560734314</v>
+      </c>
+      <c r="I51" t="n">
+        <v>29.24262009233778</v>
+      </c>
+      <c r="J51" t="n">
+        <v>30.50855872867531</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>115.0734508650461</v>
+      </c>
+      <c r="C52" t="n">
+        <v>120.8929010763498</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-4.81</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7.325361479038901</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8.741178822702874</v>
+      </c>
+      <c r="G52" t="n">
+        <v>105.4926605117213</v>
+      </c>
+      <c r="H52" t="n">
+        <v>110.8505649593172</v>
+      </c>
+      <c r="I52" t="n">
+        <v>125.0740859863544</v>
+      </c>
+      <c r="J52" t="n">
+        <v>137.4264114637322</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>count_medium_pressures_received_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>175.145088885287</v>
+      </c>
+      <c r="C53" t="n">
+        <v>183.9397732321087</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-4.78</v>
+      </c>
+      <c r="E53" t="n">
+        <v>13.64425296861628</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7.961926280267206</v>
+      </c>
+      <c r="G53" t="n">
+        <v>161.2803619122656</v>
+      </c>
+      <c r="H53" t="n">
+        <v>173.7961597410491</v>
+      </c>
+      <c r="I53" t="n">
+        <v>198.0143557981774</v>
+      </c>
+      <c r="J53" t="n">
+        <v>202.4269424695228</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>86.44445893810969</v>
+      </c>
+      <c r="C54" t="n">
+        <v>82.58892288068476</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6.839652965167274</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5.885820093249933</v>
+      </c>
+      <c r="G54" t="n">
+        <v>76.13021056849205</v>
+      </c>
+      <c r="H54" t="n">
+        <v>75.7589486335914</v>
+      </c>
+      <c r="I54" t="n">
+        <v>94.21542623186333</v>
+      </c>
+      <c r="J54" t="n">
+        <v>97.11915244577327</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_low_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>25.08434994073196</v>
+      </c>
+      <c r="C55" t="n">
+        <v>23.99866669921822</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.446833822646914</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.754246827637617</v>
+      </c>
+      <c r="G55" t="n">
+        <v>22.34827651984946</v>
+      </c>
+      <c r="H55" t="n">
+        <v>17.93359303320281</v>
+      </c>
+      <c r="I55" t="n">
+        <v>28.74526252483113</v>
+      </c>
+      <c r="J55" t="n">
+        <v>28.57497535884349</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>214.355663501651</v>
+      </c>
+      <c r="C56" t="n">
+        <v>223.6972135105384</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-4.18</v>
+      </c>
+      <c r="E56" t="n">
+        <v>30.06144108867128</v>
+      </c>
+      <c r="F56" t="n">
+        <v>28.45985703495045</v>
+      </c>
+      <c r="G56" t="n">
+        <v>186.9186399499264</v>
+      </c>
+      <c r="H56" t="n">
+        <v>170.7106217309399</v>
+      </c>
+      <c r="I56" t="n">
+        <v>264.9066690717272</v>
+      </c>
+      <c r="J56" t="n">
+        <v>259.7541124077754</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>349.418479848357</v>
+      </c>
+      <c r="C57" t="n">
+        <v>364.567461998968</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-4.16</v>
+      </c>
+      <c r="E57" t="n">
+        <v>37.69055191608413</v>
+      </c>
+      <c r="F57" t="n">
+        <v>32.83953836281339</v>
+      </c>
+      <c r="G57" t="n">
+        <v>311.0628391695839</v>
+      </c>
+      <c r="H57" t="n">
+        <v>303.0254899116125</v>
+      </c>
+      <c r="I57" t="n">
+        <v>406.7959701242572</v>
+      </c>
+      <c r="J57" t="n">
+        <v>438.5840769502226</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>count_high_pressures_received_per_match</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>129.2296056586938</v>
+      </c>
+      <c r="C58" t="n">
+        <v>124.5727367736607</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="E58" t="n">
+        <v>9.417453240133325</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7.09052491951588</v>
+      </c>
+      <c r="G58" t="n">
+        <v>115.721445699044</v>
+      </c>
+      <c r="H58" t="n">
+        <v>114.7203877108655</v>
+      </c>
+      <c r="I58" t="n">
+        <v>140.5440402814107</v>
+      </c>
+      <c r="J58" t="n">
+        <v>141.6616858668597</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>19.51870319530597</v>
+      </c>
+      <c r="C59" t="n">
+        <v>20.17581028264867</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-3.26</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.710573901099393</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4.355625975342332</v>
+      </c>
+      <c r="G59" t="n">
+        <v>15.11311915996324</v>
+      </c>
+      <c r="H59" t="n">
+        <v>13.85525110004105</v>
+      </c>
+      <c r="I59" t="n">
+        <v>22.161401726769</v>
+      </c>
+      <c r="J59" t="n">
+        <v>30.97279251042688</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>count_low_pressures_received_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>877.9400922542616</v>
+      </c>
+      <c r="C60" t="n">
+        <v>850.6922096384759</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>41.21195531129089</v>
+      </c>
+      <c r="F60" t="n">
+        <v>55.71826812042453</v>
+      </c>
+      <c r="G60" t="n">
+        <v>807.5880685285583</v>
+      </c>
+      <c r="H60" t="n">
+        <v>762.4425799233591</v>
+      </c>
+      <c r="I60" t="n">
+        <v>908.5129876245877</v>
+      </c>
+      <c r="J60" t="n">
+        <v>939.6937814737585</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>189.8756937774632</v>
+      </c>
+      <c r="C61" t="n">
+        <v>195.9151377276124</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="E61" t="n">
+        <v>22.00606673451881</v>
+      </c>
+      <c r="F61" t="n">
+        <v>26.0237590517142</v>
+      </c>
+      <c r="G61" t="n">
+        <v>173.792860770107</v>
+      </c>
+      <c r="H61" t="n">
+        <v>155.1686582143845</v>
+      </c>
+      <c r="I61" t="n">
+        <v>227.2072600233851</v>
+      </c>
+      <c r="J61" t="n">
+        <v>246.5498963525864</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>8.190240281646732</v>
+      </c>
+      <c r="C62" t="n">
+        <v>8.449312368547409</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.5791443791600787</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.6534429990879151</v>
+      </c>
+      <c r="G62" t="n">
+        <v>7.314206004593139</v>
+      </c>
+      <c r="H62" t="n">
+        <v>6.913255624881678</v>
+      </c>
+      <c r="I62" t="n">
+        <v>8.88520852954443</v>
+      </c>
+      <c r="J62" t="n">
+        <v>9.270697872223591</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>783.714554244178</v>
+      </c>
+      <c r="C63" t="n">
+        <v>761.2016323130617</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E63" t="n">
+        <v>34.85107904739589</v>
+      </c>
+      <c r="F63" t="n">
+        <v>42.52206912599097</v>
+      </c>
+      <c r="G63" t="n">
+        <v>738.7414354352926</v>
+      </c>
+      <c r="H63" t="n">
+        <v>687.7559917886244</v>
+      </c>
+      <c r="I63" t="n">
+        <v>818.6360760493106</v>
+      </c>
+      <c r="J63" t="n">
+        <v>821.7255130502465</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>7.199997413343641</v>
+      </c>
+      <c r="C64" t="n">
+        <v>7.417072152717071</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-2.93</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.757957268349169</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.474185128665025</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.839648842999617</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4.679766284324206</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10.06629737242826</v>
+      </c>
+      <c r="J64" t="n">
+        <v>10.03351933996322</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_low_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>31.26552914885294</v>
+      </c>
+      <c r="C65" t="n">
+        <v>30.39989267914375</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.521611637490439</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.699876404668772</v>
+      </c>
+      <c r="G65" t="n">
+        <v>27.79909484632672</v>
+      </c>
+      <c r="H65" t="n">
+        <v>24.31162975752658</v>
+      </c>
+      <c r="I65" t="n">
+        <v>34.18449411870256</v>
+      </c>
+      <c r="J65" t="n">
+        <v>34.35745454093325</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_low_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>29.32906000780711</v>
+      </c>
+      <c r="C66" t="n">
+        <v>28.53903672199992</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.463692503447563</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.184520479898021</v>
+      </c>
+      <c r="G66" t="n">
+        <v>26.98485960759708</v>
+      </c>
+      <c r="H66" t="n">
+        <v>21.36262958603428</v>
+      </c>
+      <c r="I66" t="n">
+        <v>32.90961101530963</v>
+      </c>
+      <c r="J66" t="n">
+        <v>33.48148457217377</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>143.8817353440324</v>
+      </c>
+      <c r="C67" t="n">
+        <v>147.5577635223999</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-2.49</v>
+      </c>
+      <c r="E67" t="n">
+        <v>11.36251059637952</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4.770462936478364</v>
+      </c>
+      <c r="G67" t="n">
+        <v>130.8147836811704</v>
+      </c>
+      <c r="H67" t="n">
+        <v>141.1661215279788</v>
+      </c>
+      <c r="I67" t="n">
+        <v>161.6535591362355</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157.0398921356966</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>636.2630827112628</v>
+      </c>
+      <c r="C68" t="n">
+        <v>621.6284433653075</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E68" t="n">
+        <v>34.7019747061245</v>
+      </c>
+      <c r="F68" t="n">
+        <v>35.73455517599211</v>
+      </c>
+      <c r="G68" t="n">
+        <v>581.7615482873201</v>
+      </c>
+      <c r="H68" t="n">
+        <v>570.8424627966397</v>
+      </c>
+      <c r="I68" t="n">
+        <v>665.0159183058194</v>
+      </c>
+      <c r="J68" t="n">
+        <v>693.4820770005357</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>difficult_pass_completion_ratio_under_high_pressure</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>29.60760713956032</v>
+      </c>
+      <c r="C69" t="n">
+        <v>28.92710311937263</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.123053123217991</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.783374684312475</v>
+      </c>
+      <c r="G69" t="n">
+        <v>26.87328754377431</v>
+      </c>
+      <c r="H69" t="n">
+        <v>26.87943058574159</v>
+      </c>
+      <c r="I69" t="n">
+        <v>32.36513245430616</v>
+      </c>
+      <c r="J69" t="n">
+        <v>32.42490839628574</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>52.93577163831944</v>
+      </c>
+      <c r="C70" t="n">
+        <v>51.76927713445885</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E70" t="n">
+        <v>9.78622638842949</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8.803095165451063</v>
+      </c>
+      <c r="G70" t="n">
+        <v>44.23622673365353</v>
+      </c>
+      <c r="H70" t="n">
+        <v>34.54731712454991</v>
+      </c>
+      <c r="I70" t="n">
+        <v>64.7789411975582</v>
+      </c>
+      <c r="J70" t="n">
+        <v>65.65158597437804</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>936.2419243687821</v>
+      </c>
+      <c r="C71" t="n">
+        <v>915.7232299382332</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E71" t="n">
+        <v>33.63079824908771</v>
+      </c>
+      <c r="F71" t="n">
+        <v>41.49467262382215</v>
+      </c>
+      <c r="G71" t="n">
+        <v>893.7710272094846</v>
+      </c>
+      <c r="H71" t="n">
+        <v>850.6973150604854</v>
+      </c>
+      <c r="I71" t="n">
+        <v>986.2635388236483</v>
+      </c>
+      <c r="J71" t="n">
+        <v>989.1943020305098</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>33.70160064010796</v>
+      </c>
+      <c r="C72" t="n">
+        <v>34.46272183484692</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.6521277532702746</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2.252794687552075</v>
+      </c>
+      <c r="G72" t="n">
+        <v>32.81138503953775</v>
+      </c>
+      <c r="H72" t="n">
+        <v>30.71203724013567</v>
+      </c>
+      <c r="I72" t="n">
+        <v>34.60878306036576</v>
+      </c>
+      <c r="J72" t="n">
+        <v>38.42727754238925</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>difficult_pass_completion_ratio_under_low_pressure</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>9.388398995518534</v>
+      </c>
+      <c r="C73" t="n">
+        <v>9.188153106081417</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.130937246287605</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.745602047215163</v>
+      </c>
+      <c r="G73" t="n">
+        <v>7.906618336989101</v>
+      </c>
+      <c r="H73" t="n">
+        <v>7.023128530731448</v>
+      </c>
+      <c r="I73" t="n">
+        <v>10.50731671795062</v>
+      </c>
+      <c r="J73" t="n">
+        <v>12.27675402487855</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_low_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>4.135877655214959</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4.051664150279227</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.3524198999202106</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.4554164450721871</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3.76551650841305</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3.445235941680335</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4.591894578775816</v>
+      </c>
+      <c r="J74" t="n">
+        <v>4.978570830286243</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>137.5816783914227</v>
+      </c>
+      <c r="C75" t="n">
+        <v>140.4847637023279</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="E75" t="n">
+        <v>13.01471281010979</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6.405009495708468</v>
+      </c>
+      <c r="G75" t="n">
+        <v>119.6113486105693</v>
+      </c>
+      <c r="H75" t="n">
+        <v>131.3273911426286</v>
+      </c>
+      <c r="I75" t="n">
+        <v>155.9644386393801</v>
+      </c>
+      <c r="J75" t="n">
+        <v>155.7812869717343</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>ball_retention_ratio_under_medium_pressure</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>66.33539009640845</v>
+      </c>
+      <c r="C76" t="n">
+        <v>65.07082769935018</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.737829022009495</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2.770607139227629</v>
+      </c>
+      <c r="G76" t="n">
+        <v>61.97341069876638</v>
+      </c>
+      <c r="H76" t="n">
+        <v>58.99554369833887</v>
+      </c>
+      <c r="I76" t="n">
+        <v>68.6619255890492</v>
+      </c>
+      <c r="J76" t="n">
+        <v>68.34417862337921</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>count_ball_retentions_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>900.2753257313831</v>
+      </c>
+      <c r="C77" t="n">
+        <v>883.400818085432</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E77" t="n">
+        <v>35.46995090111851</v>
+      </c>
+      <c r="F77" t="n">
+        <v>35.12847749889283</v>
+      </c>
+      <c r="G77" t="n">
+        <v>845.6146060137269</v>
+      </c>
+      <c r="H77" t="n">
+        <v>829.8504155534409</v>
+      </c>
+      <c r="I77" t="n">
+        <v>939.9553764695505</v>
+      </c>
+      <c r="J77" t="n">
+        <v>960.2379276284604</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>count_forced_losses_under_medium_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>21.07263745171105</v>
+      </c>
+      <c r="C78" t="n">
+        <v>21.45767785538708</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.8682174740824362</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.056154776632053</v>
+      </c>
+      <c r="G78" t="n">
+        <v>20.089045983324</v>
+      </c>
+      <c r="H78" t="n">
+        <v>19.54765754965999</v>
+      </c>
+      <c r="I78" t="n">
+        <v>22.1216798325188</v>
+      </c>
+      <c r="J78" t="n">
+        <v>23.57308190408416</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>8.771641647253919</v>
+      </c>
+      <c r="C79" t="n">
+        <v>8.6196950759535</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.4822935827077808</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.7272518798499724</v>
+      </c>
+      <c r="G79" t="n">
+        <v>8.297084507028288</v>
+      </c>
+      <c r="H79" t="n">
+        <v>7.343120046737932</v>
+      </c>
+      <c r="I79" t="n">
+        <v>9.518549566911286</v>
+      </c>
+      <c r="J79" t="n">
+        <v>9.74609971088778</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>ball_retention_ratio_under_high_pressure</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>63.79663852730737</v>
+      </c>
+      <c r="C80" t="n">
+        <v>62.74635964289104</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3.106221437029308</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.259124909757458</v>
+      </c>
+      <c r="G80" t="n">
+        <v>58.72040143786406</v>
+      </c>
+      <c r="H80" t="n">
+        <v>58.42119873135636</v>
+      </c>
+      <c r="I80" t="n">
+        <v>66.29717625903702</v>
+      </c>
+      <c r="J80" t="n">
+        <v>66.85710831866621</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>pass_completion_ratio_under_high_pressure</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>65.26093577501423</v>
+      </c>
+      <c r="C81" t="n">
+        <v>64.25097355208202</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4.146226643238474</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.724910069035285</v>
+      </c>
+      <c r="G81" t="n">
+        <v>58.37236531261879</v>
+      </c>
+      <c r="H81" t="n">
+        <v>58.33117335911105</v>
+      </c>
+      <c r="I81" t="n">
+        <v>68.67364819100776</v>
+      </c>
+      <c r="J81" t="n">
+        <v>68.3629216180415</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_medium_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>983.8687172250208</v>
+      </c>
+      <c r="C82" t="n">
+        <v>970.9704354907216</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E82" t="n">
+        <v>24.60352977312911</v>
+      </c>
+      <c r="F82" t="n">
+        <v>32.24647468823676</v>
+      </c>
+      <c r="G82" t="n">
+        <v>959.4550459821537</v>
+      </c>
+      <c r="H82" t="n">
+        <v>919.7915976639135</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1023.589229487778</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1035.128866320524</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1.616317785566582</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.597280398074337</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.1794954536251064</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.3017557285122426</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.386414378774036</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.171010686964805</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.800102473785913</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.176649273793562</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>16.88538319807508</v>
+      </c>
+      <c r="C84" t="n">
+        <v>17.07793803699742</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.7756577961598865</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.079689568576342</v>
+      </c>
+      <c r="G84" t="n">
+        <v>16.36988532008793</v>
+      </c>
+      <c r="H84" t="n">
+        <v>14.34622741423436</v>
+      </c>
+      <c r="I84" t="n">
+        <v>18.17544044914571</v>
+      </c>
+      <c r="J84" t="n">
+        <v>18.10816188367631</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>3.185130243983958</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.213056349755119</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.1501018409291491</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.419047254270259</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3.010210159807008</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2.41342584488841</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3.377466693799771</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4.05566687084303</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>18.54999338279208</v>
+      </c>
+      <c r="C86" t="n">
+        <v>18.68158928812503</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.8505335732176287</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.82301944320041</v>
+      </c>
+      <c r="G86" t="n">
+        <v>17.50032242899635</v>
+      </c>
+      <c r="H86" t="n">
+        <v>15.20830733644102</v>
+      </c>
+      <c r="I86" t="n">
+        <v>19.86248050314585</v>
+      </c>
+      <c r="J86" t="n">
+        <v>21.55051489425237</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_difficult_passes_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>89.9116369851745</v>
+      </c>
+      <c r="C87" t="n">
+        <v>89.28368829223766</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5.099757999867301</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10.78167774846214</v>
+      </c>
+      <c r="G87" t="n">
+        <v>84.46829895516701</v>
+      </c>
+      <c r="H87" t="n">
+        <v>73.35274974858429</v>
+      </c>
+      <c r="I87" t="n">
+        <v>98.20586594813466</v>
+      </c>
+      <c r="J87" t="n">
+        <v>106.1684253523057</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>count_completed_passes_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>115.6854840981155</v>
+      </c>
+      <c r="C88" t="n">
+        <v>116.393352118622</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="E88" t="n">
+        <v>11.44156234183171</v>
+      </c>
+      <c r="F88" t="n">
+        <v>5.820283040993805</v>
+      </c>
+      <c r="G88" t="n">
+        <v>98.9674920228307</v>
+      </c>
+      <c r="H88" t="n">
+        <v>109.3743189033853</v>
+      </c>
+      <c r="I88" t="n">
+        <v>129.5639370778266</v>
+      </c>
+      <c r="J88" t="n">
+        <v>131.9671148609973</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>14.08716265318722</v>
+      </c>
+      <c r="C89" t="n">
+        <v>14.14955988909622</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.839632982391552</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.746985472866683</v>
+      </c>
+      <c r="G89" t="n">
+        <v>11.78933433925992</v>
+      </c>
+      <c r="H89" t="n">
+        <v>8.806946501625887</v>
+      </c>
+      <c r="I89" t="n">
+        <v>18.81387867634302</v>
+      </c>
+      <c r="J89" t="n">
+        <v>19.53446887129098</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>count_low_pressures_received_per_30_min_tip</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>37.25118393795604</v>
+      </c>
+      <c r="C90" t="n">
+        <v>37.1363822445346</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.037909943288017</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3.363555358908048</v>
+      </c>
+      <c r="G90" t="n">
+        <v>32.27529533673702</v>
+      </c>
+      <c r="H90" t="n">
+        <v>29.06022803998605</v>
+      </c>
+      <c r="I90" t="n">
+        <v>39.56928228473546</v>
+      </c>
+      <c r="J90" t="n">
+        <v>42.08538551963854</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
           <t>pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>65.38722993464907</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="B91" t="n">
+        <v>65.38723293456432</v>
+      </c>
+      <c r="C91" t="n">
         <v>65.21654156881303</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D91" t="n">
         <v>0.26</v>
       </c>
-      <c r="E40" t="n">
-        <v>3.171738950890961</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E91" t="n">
+        <v>3.17174005453471</v>
+      </c>
+      <c r="F91" t="n">
         <v>3.145396453232943</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G91" t="n">
         <v>60.16462282370047</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H91" t="n">
         <v>58.42356704351844</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I91" t="n">
         <v>68.39181857179648</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J91" t="n">
         <v>69.28342128159461</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>count_pass_attempts_under_high_pressure_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>823.821677027611</v>
+      </c>
+      <c r="C92" t="n">
+        <v>825.1169800611206</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E92" t="n">
+        <v>27.33069740070298</v>
+      </c>
+      <c r="F92" t="n">
+        <v>33.48025284552996</v>
+      </c>
+      <c r="G92" t="n">
+        <v>803.5701419092132</v>
+      </c>
+      <c r="H92" t="n">
+        <v>773.8646938069937</v>
+      </c>
+      <c r="I92" t="n">
+        <v>870.8687788984563</v>
+      </c>
+      <c r="J92" t="n">
+        <v>881.1129259755218</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>count_high_pressures_received_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1249.69380557974</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1247.9682800844</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E93" t="n">
+        <v>28.98250468861931</v>
+      </c>
+      <c r="F93" t="n">
+        <v>28.89213334653356</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1224.551115549788</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1199.95591204653</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1298.289930312206</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1296.253405733635</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>count_medium_pressures_received_per_100_pressures</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1213.836505329723</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1212.764290897712</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E94" t="n">
+        <v>33.69467490360432</v>
+      </c>
+      <c r="F94" t="n">
+        <v>27.89046282096062</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1181.94738728628</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1165.50871191941</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1269.459332501825</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1269.285969271664</v>
       </c>
     </row>
   </sheetData>
